--- a/Testcase_writing_MedEasy.xlsx
+++ b/Testcase_writing_MedEasy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -5817,28 +5817,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13573125" cy="11849100"/>
+    <xdr:ext cx="18206085" cy="12604750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png" descr="G:\SQA_Courses\SQA\Manual Testing\ManualTesting_Project\MedEasy.pngMedEasy" title="Image"/>
+        <xdr:cNvPr id="2" name="image2.png" descr="G:\SQA_Courses\SQA\Manual Testing\ManualTesting_Project\MedEasy\MedEasy_v1.jpgMedEasy_v1" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="2977" t="-3" r="2977" b="3"/>
+        <a:srcRect l="2" t="4275" r="-2" b="4265"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="809625"/>
-          <a:ext cx="13573125" cy="11849100"/>
+          <a:off x="9525" y="1065530"/>
+          <a:ext cx="18206085" cy="12604750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7142,13 +7142,15 @@
   <sheetPr/>
   <dimension ref="J1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B49" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="30" width="8.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="2.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
+    <col min="3" max="30" width="8.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
